--- a/excel/approche_mesh_path.xlsx
+++ b/excel/approche_mesh_path.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12345"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19440" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="xyToExcel" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -651,6 +652,83 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>mesh 1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xyToExcel!$J:$J</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.735603332519531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.999885559082031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.000473022460938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.105827331542969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.319839477539062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.694557189941406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.755256652832031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xyToExcel!$K:$K</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>6.4853459596633911E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1532998085021973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1864233016967773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.186495304107666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1938630342483521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2495203018188477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1552199125289917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84274512529373169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -659,11 +737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95210112"/>
-        <c:axId val="89922560"/>
+        <c:axId val="276338176"/>
+        <c:axId val="276345216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95210112"/>
+        <c:axId val="276338176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +770,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89922560"/>
+        <c:crossAx val="276345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89922560"/>
+        <c:axId val="276345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,11 +805,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95210112"/>
+        <c:crossAx val="276338176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -748,15 +831,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1066,15 +1149,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1093,8 +1176,14 @@
       <c r="H1" s="2">
         <v>8.8583193719387054E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3">
+        <v>6.4853459596633911E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.889197826385498</v>
       </c>
@@ -1113,8 +1202,14 @@
       <c r="H2" s="2">
         <v>9.2593848705291748E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>67.735603332519531</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.1532998085021973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7.7790045738220215</v>
       </c>
@@ -1133,8 +1228,14 @@
       <c r="H3" s="2">
         <v>9.259488433599472E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>67.999885559082031</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.1864233016967773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11.669422149658203</v>
       </c>
@@ -1153,8 +1254,14 @@
       <c r="H4" s="2">
         <v>0.10382673889398575</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>68.000473022460938</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.186495304107666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.560444831848145</v>
       </c>
@@ -1173,8 +1280,14 @@
       <c r="H5" s="2">
         <v>0.12041037529706955</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>68.105827331542969</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.1938630342483521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19.452072143554687</v>
       </c>
@@ -1193,8 +1306,14 @@
       <c r="H6" s="2">
         <v>0.1404750645160675</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>69.319839477539062</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.2495203018188477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23.34429931640625</v>
       </c>
@@ -1213,8 +1332,14 @@
       <c r="H7" s="2">
         <v>0.16274808347225189</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>70.694557189941406</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.1552199125289917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27.23712158203125</v>
       </c>
@@ -1233,8 +1358,14 @@
       <c r="H8" s="2">
         <v>0.18644446134567261</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>71.755256652832031</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.84274512529373169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31.130546569824219</v>
       </c>
@@ -1254,7 +1385,7 @@
         <v>0.21109090745449066</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35.024570465087891</v>
       </c>
@@ -1274,7 +1405,7 @@
         <v>0.23639637231826782</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38.919254302978516</v>
       </c>
@@ -1294,7 +1425,7 @@
         <v>0.2621769905090332</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>42.814586639404297</v>
       </c>
@@ -1314,7 +1445,7 @@
         <v>0.28831148147583008</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.71087646484375</v>
       </c>
@@ -1334,7 +1465,7 @@
         <v>0.31471851468086243</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50.608078002929687</v>
       </c>
@@ -1354,7 +1485,7 @@
         <v>0.34134089946746826</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>54.5078125</v>
       </c>
@@ -1374,7 +1505,7 @@
         <v>0.36813974380493164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>58.408031463623047</v>
       </c>
